--- a/Rasterisation 2023.xlsx
+++ b/Rasterisation 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lt00036625\Desktop\Computer Graphics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A59F8305-D781-4F96-A1E8-9EDB7878F24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CCF328-99BA-44FF-B105-223808E4483E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11040" activeTab="1" xr2:uid="{2CF3E13D-F9CA-4881-B5D4-324E0A36FCCB}"/>
   </bookViews>
@@ -219,20 +219,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -254,6 +245,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -735,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73178EAF-7FB5-461C-8E9D-30E10B85BD83}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D15"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,19 +791,19 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="G6" s="3" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="G6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -823,12 +823,12 @@
         <f>D1-B7*B1</f>
         <v>-818.35294117647061</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
@@ -856,7 +856,7 @@
         <v>354</v>
       </c>
       <c r="C10" s="2">
-        <f>B$7*B10+E$7</f>
+        <f t="shared" ref="C10:C31" si="0">B$7*B10+E$7</f>
         <v>202</v>
       </c>
       <c r="D10" s="2">
@@ -882,11 +882,11 @@
         <v>355</v>
       </c>
       <c r="C11" s="2">
-        <f>B$7*B11+E$7</f>
+        <f t="shared" si="0"/>
         <v>204.88235294117646</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" ref="D11:D31" si="0">ROUND(C11,0)</f>
+        <f t="shared" ref="D11:D31" si="1">ROUND(C11,0)</f>
         <v>205</v>
       </c>
       <c r="G11" s="2">
@@ -898,527 +898,527 @@
         <v>204.88235294117646</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" ref="I11:I31" si="1">ROUND(H11,0)</f>
+        <f t="shared" ref="I11:I31" si="2">ROUND(H11,0)</f>
         <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
-        <f t="shared" ref="B12:B31" si="2">B11+1</f>
+        <f t="shared" ref="B12:B31" si="3">B11+1</f>
         <v>356</v>
       </c>
       <c r="C12" s="2">
-        <f>B$7*B12+E$7</f>
+        <f t="shared" si="0"/>
         <v>207.76470588235281</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>208</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" ref="G12:G31" si="3">G11+1</f>
+        <f t="shared" ref="G12:G31" si="4">G11+1</f>
         <v>356</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" ref="H12:H31" si="4">H11+I$1</f>
+        <f t="shared" ref="H12:H31" si="5">H11+I$1</f>
         <v>207.76470588235293</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
-        <f t="shared" si="2"/>
-        <v>357</v>
-      </c>
-      <c r="C13" s="2">
-        <f>B$7*B13+E$7</f>
-        <v>210.64705882352939</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="0"/>
-        <v>211</v>
-      </c>
-      <c r="G13" s="2">
         <f t="shared" si="3"/>
         <v>357</v>
       </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>210.64705882352939</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="1"/>
+        <v>211</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="4"/>
+        <v>357</v>
+      </c>
       <c r="H13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>210.64705882352939</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
-        <f t="shared" si="2"/>
-        <v>358</v>
-      </c>
-      <c r="C14" s="2">
-        <f>B$7*B14+E$7</f>
-        <v>213.52941176470574</v>
-      </c>
-      <c r="D14" s="2">
-        <f t="shared" si="0"/>
-        <v>214</v>
-      </c>
-      <c r="G14" s="2">
         <f t="shared" si="3"/>
         <v>358</v>
       </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>213.52941176470574</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="1"/>
+        <v>214</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="4"/>
+        <v>358</v>
+      </c>
       <c r="H14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>213.52941176470586</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
-        <f t="shared" si="2"/>
-        <v>359</v>
-      </c>
-      <c r="C15" s="2">
-        <f>B$7*B15+E$7</f>
-        <v>216.41176470588232</v>
-      </c>
-      <c r="D15" s="2">
-        <f t="shared" si="0"/>
-        <v>216</v>
-      </c>
-      <c r="G15" s="2">
         <f t="shared" si="3"/>
         <v>359</v>
       </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>216.41176470588232</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="4"/>
+        <v>359</v>
+      </c>
       <c r="H15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>216.41176470588232</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
-        <f t="shared" si="2"/>
-        <v>360</v>
-      </c>
-      <c r="C16" s="2">
-        <f>B$7*B16+E$7</f>
-        <v>219.2941176470589</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="0"/>
-        <v>219</v>
-      </c>
-      <c r="G16" s="2">
         <f t="shared" si="3"/>
         <v>360</v>
       </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>219.2941176470589</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="1"/>
+        <v>219</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="4"/>
+        <v>360</v>
+      </c>
       <c r="H16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>219.29411764705878</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>219</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
-        <f t="shared" si="2"/>
-        <v>361</v>
-      </c>
-      <c r="C17" s="2">
-        <f>B$7*B17+E$7</f>
-        <v>222.17647058823525</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>222</v>
-      </c>
-      <c r="G17" s="2">
         <f t="shared" si="3"/>
         <v>361</v>
       </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>222.17647058823525</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="1"/>
+        <v>222</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="4"/>
+        <v>361</v>
+      </c>
       <c r="H17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>222.17647058823525</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>222</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
-        <f t="shared" si="2"/>
-        <v>362</v>
-      </c>
-      <c r="C18" s="2">
-        <f>B$7*B18+E$7</f>
-        <v>225.05882352941182</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="0"/>
-        <v>225</v>
-      </c>
-      <c r="G18" s="2">
         <f t="shared" si="3"/>
         <v>362</v>
       </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>225.05882352941182</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="4"/>
+        <v>362</v>
+      </c>
       <c r="H18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>225.05882352941171</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>225</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
-        <f t="shared" si="2"/>
-        <v>363</v>
-      </c>
-      <c r="C19" s="2">
-        <f>B$7*B19+E$7</f>
-        <v>227.94117647058818</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="0"/>
-        <v>228</v>
-      </c>
-      <c r="G19" s="2">
         <f t="shared" si="3"/>
         <v>363</v>
       </c>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>227.94117647058818</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="1"/>
+        <v>228</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="4"/>
+        <v>363</v>
+      </c>
       <c r="H19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>227.94117647058818</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>228</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
-        <f t="shared" si="2"/>
-        <v>364</v>
-      </c>
-      <c r="C20" s="2">
-        <f>B$7*B20+E$7</f>
-        <v>230.82352941176475</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="0"/>
-        <v>231</v>
-      </c>
-      <c r="G20" s="2">
         <f t="shared" si="3"/>
         <v>364</v>
       </c>
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>230.82352941176475</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="1"/>
+        <v>231</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="4"/>
+        <v>364</v>
+      </c>
       <c r="H20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>230.82352941176464</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>231</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
-        <f t="shared" si="2"/>
-        <v>365</v>
-      </c>
-      <c r="C21" s="2">
-        <f>B$7*B21+E$7</f>
-        <v>233.7058823529411</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="0"/>
-        <v>234</v>
-      </c>
-      <c r="G21" s="2">
         <f t="shared" si="3"/>
         <v>365</v>
       </c>
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>233.7058823529411</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="1"/>
+        <v>234</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="4"/>
+        <v>365</v>
+      </c>
       <c r="H21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>233.7058823529411</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>234</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
-        <f t="shared" si="2"/>
-        <v>366</v>
-      </c>
-      <c r="C22" s="2">
-        <f>B$7*B22+E$7</f>
-        <v>236.58823529411768</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>237</v>
-      </c>
-      <c r="G22" s="2">
         <f t="shared" si="3"/>
         <v>366</v>
       </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>236.58823529411768</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="1"/>
+        <v>237</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="4"/>
+        <v>366</v>
+      </c>
       <c r="H22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>236.58823529411757</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>237</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
-        <f t="shared" si="2"/>
-        <v>367</v>
-      </c>
-      <c r="C23" s="2">
-        <f>B$7*B23+E$7</f>
-        <v>239.47058823529403</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>239</v>
-      </c>
-      <c r="G23" s="2">
         <f t="shared" si="3"/>
         <v>367</v>
       </c>
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>239.47058823529403</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="1"/>
+        <v>239</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="4"/>
+        <v>367</v>
+      </c>
       <c r="H23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>239.47058823529403</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>239</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
-        <f t="shared" si="2"/>
-        <v>368</v>
-      </c>
-      <c r="C24" s="2">
-        <f>B$7*B24+E$7</f>
-        <v>242.35294117647061</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>242</v>
-      </c>
-      <c r="G24" s="2">
         <f t="shared" si="3"/>
         <v>368</v>
       </c>
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>242.35294117647061</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="1"/>
+        <v>242</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="4"/>
+        <v>368</v>
+      </c>
       <c r="H24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>242.35294117647049</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>242</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
-        <f t="shared" si="2"/>
-        <v>369</v>
-      </c>
-      <c r="C25" s="2">
-        <f>B$7*B25+E$7</f>
-        <v>245.23529411764696</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="0"/>
-        <v>245</v>
-      </c>
-      <c r="G25" s="2">
         <f t="shared" si="3"/>
         <v>369</v>
       </c>
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>245.23529411764696</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="1"/>
+        <v>245</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="4"/>
+        <v>369</v>
+      </c>
       <c r="H25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>245.23529411764696</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>245</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
-        <f t="shared" si="2"/>
-        <v>370</v>
-      </c>
-      <c r="C26" s="2">
-        <f>B$7*B26+E$7</f>
-        <v>248.11764705882354</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="0"/>
-        <v>248</v>
-      </c>
-      <c r="G26" s="2">
         <f t="shared" si="3"/>
         <v>370</v>
       </c>
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>248.11764705882354</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="1"/>
+        <v>248</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="4"/>
+        <v>370</v>
+      </c>
       <c r="H26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>248.11764705882342</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>248</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
-        <f t="shared" si="2"/>
-        <v>371</v>
-      </c>
-      <c r="C27" s="2">
-        <f>B$7*B27+E$7</f>
-        <v>250.99999999999989</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" si="0"/>
-        <v>251</v>
-      </c>
-      <c r="G27" s="2">
         <f t="shared" si="3"/>
         <v>371</v>
       </c>
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>250.99999999999989</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="1"/>
+        <v>251</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="4"/>
+        <v>371</v>
+      </c>
       <c r="H27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>250.99999999999989</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>251</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
-        <f t="shared" si="2"/>
-        <v>372</v>
-      </c>
-      <c r="C28" s="2">
-        <f>B$7*B28+E$7</f>
-        <v>253.88235294117646</v>
-      </c>
-      <c r="D28" s="2">
-        <f t="shared" si="0"/>
-        <v>254</v>
-      </c>
-      <c r="G28" s="2">
         <f t="shared" si="3"/>
         <v>372</v>
       </c>
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>253.88235294117646</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="4"/>
+        <v>372</v>
+      </c>
       <c r="H28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>253.88235294117635</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>254</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
-        <f t="shared" si="2"/>
-        <v>373</v>
-      </c>
-      <c r="C29" s="2">
-        <f>B$7*B29+E$7</f>
-        <v>256.76470588235281</v>
-      </c>
-      <c r="D29" s="2">
-        <f t="shared" si="0"/>
-        <v>257</v>
-      </c>
-      <c r="G29" s="2">
         <f t="shared" si="3"/>
         <v>373</v>
       </c>
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>256.76470588235281</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="1"/>
+        <v>257</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="4"/>
+        <v>373</v>
+      </c>
       <c r="H29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>256.76470588235281</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>257</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
-        <f t="shared" si="2"/>
-        <v>374</v>
-      </c>
-      <c r="C30" s="2">
-        <f>B$7*B30+E$7</f>
-        <v>259.64705882352939</v>
-      </c>
-      <c r="D30" s="2">
-        <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
-      <c r="G30" s="2">
         <f t="shared" si="3"/>
         <v>374</v>
       </c>
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>259.64705882352939</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="4"/>
+        <v>374</v>
+      </c>
       <c r="H30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>259.64705882352928</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
-        <f t="shared" si="2"/>
-        <v>375</v>
-      </c>
-      <c r="C31" s="2">
-        <f>B$7*B31+E$7</f>
-        <v>262.52941176470574</v>
-      </c>
-      <c r="D31" s="2">
-        <f t="shared" si="0"/>
-        <v>263</v>
-      </c>
-      <c r="G31" s="2">
         <f t="shared" si="3"/>
         <v>375</v>
       </c>
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>262.52941176470574</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="1"/>
+        <v>263</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="4"/>
+        <v>375</v>
+      </c>
       <c r="H31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>262.52941176470574</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>263</v>
       </c>
     </row>
@@ -1437,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBB7519-A2B6-458A-A8C3-99333BE6E0F1}">
   <dimension ref="A1:AA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:D24"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1459,13 +1459,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2">
-        <v>-354</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="H1" s="2">
         <f>(D3-D1)/(B3-B1)</f>
-        <v>0.72727272727272729</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -1486,13 +1486,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>213</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>-346</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="D5" s="2">
         <f>B3-B1</f>
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="D6" s="2">
         <f>D3-D1</f>
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -1531,40 +1531,40 @@
       </c>
       <c r="D7" s="2">
         <f>D6-D5</f>
-        <v>-3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="5">
         <f>D7*2</f>
-        <v>-6</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="7">
         <f>2*D6</f>
-        <v>16</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="8" t="s">
         <v>28</v>
       </c>
       <c r="T9" s="2" t="s">
@@ -1572,27 +1572,27 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="10">
         <f>2*D6-D5</f>
-        <v>5</v>
-      </c>
-      <c r="E10" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="10" t="s">
         <v>27</v>
       </c>
       <c r="X10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y10" s="6" t="s">
+      <c r="Y10" s="13" t="s">
         <v>25</v>
       </c>
       <c r="Z10" s="2">
@@ -1600,7 +1600,7 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Y11" s="6"/>
+      <c r="Y11" s="13"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
@@ -1615,40 +1615,40 @@
       <c r="U12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="X12" s="5" t="s">
+      <c r="X12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="5">
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <f>B1</f>
-        <v>202</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2">
         <f>D1</f>
-        <v>-354</v>
+        <v>12</v>
       </c>
       <c r="F13" s="2">
         <f>D10</f>
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <f>B13+1</f>
-        <v>203</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2">
         <f>IF(F13&lt;=0,D13,D13+1)</f>
-        <v>-353</v>
+        <v>13</v>
       </c>
       <c r="F14" s="2">
         <f>IF(F13&lt;=0, F13+D$9,F13+D$8)</f>
-        <v>-1</v>
+        <v>36</v>
       </c>
       <c r="X14" s="2" t="s">
         <v>20</v>
@@ -1663,17 +1663,17 @@
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <f t="shared" ref="B15:B66" si="0">B14+1</f>
-        <v>204</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ref="D15:D66" si="1">IF(F14&lt;=0,D14,D14+1)</f>
-        <v>-353</v>
+        <v>14</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" ref="F15:F66" si="2">IF(F14&lt;=0, F14+D$9,F14+D$8)</f>
-        <v>15</v>
-      </c>
-      <c r="O15" s="4"/>
+        <v>50</v>
+      </c>
+      <c r="O15" s="3"/>
       <c r="U15" s="2" t="s">
         <v>23</v>
       </c>
@@ -1681,15 +1681,15 @@
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>205</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>-352</v>
+        <v>15</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="X16" s="2" t="s">
         <v>26</v>
@@ -1704,701 +1704,701 @@
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>206</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>-351</v>
+        <v>16</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>207</v>
+        <v>37</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>-350</v>
+        <v>17</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>38</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>-350</v>
+        <v>18</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <f t="shared" si="0"/>
-        <v>209</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>-349</v>
+        <v>19</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>-348</v>
+        <v>20</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <f t="shared" si="0"/>
-        <v>211</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>-347</v>
+        <v>21</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="2"/>
-        <v>-5</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>212</v>
+        <v>42</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="1"/>
-        <v>-347</v>
+        <v>22</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>213</v>
+        <v>43</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="1"/>
-        <v>-346</v>
+        <v>23</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>214</v>
+        <v>44</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="1"/>
-        <v>-345</v>
+        <v>24</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="1"/>
-        <v>-345</v>
+        <v>25</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <f t="shared" si="0"/>
-        <v>216</v>
+        <v>46</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="1"/>
-        <v>-344</v>
+        <v>26</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <f t="shared" si="0"/>
-        <v>217</v>
+        <v>47</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="1"/>
-        <v>-343</v>
+        <v>27</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>218</v>
+        <v>48</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="1"/>
-        <v>-342</v>
+        <v>28</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <f t="shared" si="0"/>
-        <v>219</v>
+        <v>49</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="1"/>
-        <v>-342</v>
+        <v>29</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="D31" s="2">
         <f t="shared" si="1"/>
-        <v>-341</v>
+        <v>30</v>
       </c>
       <c r="F31" s="2">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <f t="shared" si="0"/>
-        <v>221</v>
+        <v>51</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" si="1"/>
-        <v>-340</v>
+        <v>31</v>
       </c>
       <c r="F32" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>288</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <f t="shared" si="0"/>
-        <v>222</v>
+        <v>52</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" si="1"/>
-        <v>-339</v>
+        <v>32</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" si="2"/>
-        <v>-5</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <f t="shared" si="0"/>
-        <v>223</v>
+        <v>53</v>
       </c>
       <c r="D34" s="2">
         <f t="shared" si="1"/>
-        <v>-339</v>
+        <v>33</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <f t="shared" si="0"/>
-        <v>224</v>
+        <v>54</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" si="1"/>
-        <v>-338</v>
+        <v>34</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>55</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="1"/>
-        <v>-337</v>
+        <v>35</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <f t="shared" si="0"/>
-        <v>226</v>
+        <v>56</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" si="1"/>
-        <v>-337</v>
+        <v>36</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <f t="shared" si="0"/>
-        <v>227</v>
+        <v>57</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" si="1"/>
-        <v>-336</v>
+        <v>37</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>372</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <f t="shared" si="0"/>
-        <v>228</v>
+        <v>58</v>
       </c>
       <c r="D39" s="2">
         <f t="shared" si="1"/>
-        <v>-335</v>
+        <v>38</v>
       </c>
       <c r="F39" s="2">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>386</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <f t="shared" si="0"/>
-        <v>229</v>
+        <v>59</v>
       </c>
       <c r="D40" s="2">
         <f t="shared" si="1"/>
-        <v>-334</v>
+        <v>39</v>
       </c>
       <c r="F40" s="2">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>60</v>
       </c>
       <c r="D41" s="2">
         <f t="shared" si="1"/>
-        <v>-334</v>
+        <v>40</v>
       </c>
       <c r="F41" s="2">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>414</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <f t="shared" si="0"/>
-        <v>231</v>
+        <v>61</v>
       </c>
       <c r="D42" s="2">
         <f t="shared" si="1"/>
-        <v>-333</v>
+        <v>41</v>
       </c>
       <c r="F42" s="2">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>428</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <f t="shared" si="0"/>
-        <v>232</v>
+        <v>62</v>
       </c>
       <c r="D43" s="2">
         <f t="shared" si="1"/>
-        <v>-332</v>
+        <v>42</v>
       </c>
       <c r="F43" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>442</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <f t="shared" si="0"/>
-        <v>233</v>
+        <v>63</v>
       </c>
       <c r="D44" s="2">
         <f t="shared" si="1"/>
-        <v>-331</v>
+        <v>43</v>
       </c>
       <c r="F44" s="2">
         <f t="shared" si="2"/>
-        <v>-5</v>
+        <v>456</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>64</v>
       </c>
       <c r="D45" s="2">
         <f t="shared" si="1"/>
-        <v>-331</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>470</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>65</v>
       </c>
       <c r="D46" s="2">
         <f t="shared" si="1"/>
-        <v>-330</v>
+        <v>45</v>
       </c>
       <c r="F46" s="2">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>484</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <f t="shared" si="0"/>
-        <v>236</v>
+        <v>66</v>
       </c>
       <c r="D47" s="2">
         <f t="shared" si="1"/>
-        <v>-329</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>498</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <f t="shared" si="0"/>
-        <v>237</v>
+        <v>67</v>
       </c>
       <c r="D48" s="2">
         <f t="shared" si="1"/>
-        <v>-329</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>512</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <f t="shared" si="0"/>
-        <v>238</v>
+        <v>68</v>
       </c>
       <c r="D49" s="2">
         <f t="shared" si="1"/>
-        <v>-328</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>526</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <f t="shared" si="0"/>
-        <v>239</v>
+        <v>69</v>
       </c>
       <c r="D50" s="2">
         <f t="shared" si="1"/>
-        <v>-327</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>540</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>70</v>
       </c>
       <c r="D51" s="2">
         <f t="shared" si="1"/>
-        <v>-326</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>554</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
         <f t="shared" si="0"/>
-        <v>241</v>
+        <v>71</v>
       </c>
       <c r="D52" s="2">
         <f t="shared" si="1"/>
-        <v>-326</v>
+        <v>51</v>
       </c>
       <c r="F52" s="2">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>568</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <f t="shared" si="0"/>
-        <v>242</v>
+        <v>72</v>
       </c>
       <c r="D53" s="2">
         <f t="shared" si="1"/>
-        <v>-325</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>582</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <f t="shared" si="0"/>
-        <v>243</v>
+        <v>73</v>
       </c>
       <c r="D54" s="2">
         <f t="shared" si="1"/>
-        <v>-324</v>
+        <v>53</v>
       </c>
       <c r="F54" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>596</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <f t="shared" si="0"/>
-        <v>244</v>
+        <v>74</v>
       </c>
       <c r="D55" s="2">
         <f t="shared" si="1"/>
-        <v>-323</v>
+        <v>54</v>
       </c>
       <c r="F55" s="2">
         <f t="shared" si="2"/>
-        <v>-5</v>
+        <v>610</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>75</v>
       </c>
       <c r="D56" s="2">
         <f t="shared" si="1"/>
-        <v>-323</v>
+        <v>55</v>
       </c>
       <c r="F56" s="2">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>624</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <f t="shared" si="0"/>
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="D57" s="2">
         <f t="shared" si="1"/>
-        <v>-322</v>
+        <v>56</v>
       </c>
       <c r="F57" s="2">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>638</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <f t="shared" si="0"/>
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="D58" s="2">
         <f t="shared" si="1"/>
-        <v>-321</v>
+        <v>57</v>
       </c>
       <c r="F58" s="2">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>652</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
         <f t="shared" si="0"/>
-        <v>248</v>
+        <v>78</v>
       </c>
       <c r="D59" s="2">
         <f t="shared" si="1"/>
-        <v>-321</v>
+        <v>58</v>
       </c>
       <c r="F59" s="2">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>666</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
         <f t="shared" si="0"/>
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="D60" s="2">
         <f t="shared" si="1"/>
-        <v>-320</v>
+        <v>59</v>
       </c>
       <c r="F60" s="2">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>680</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="D61" s="2">
         <f t="shared" si="1"/>
-        <v>-319</v>
+        <v>60</v>
       </c>
       <c r="F61" s="2">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>694</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
         <f t="shared" si="0"/>
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="D62" s="2">
         <f t="shared" si="1"/>
-        <v>-318</v>
+        <v>61</v>
       </c>
       <c r="F62" s="2">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>708</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
         <f t="shared" si="0"/>
-        <v>252</v>
+        <v>82</v>
       </c>
       <c r="D63" s="2">
         <f t="shared" si="1"/>
-        <v>-318</v>
+        <v>62</v>
       </c>
       <c r="F63" s="2">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>722</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
         <f t="shared" si="0"/>
-        <v>253</v>
+        <v>83</v>
       </c>
       <c r="D64" s="2">
         <f t="shared" si="1"/>
-        <v>-317</v>
+        <v>63</v>
       </c>
       <c r="F64" s="2">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>736</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
         <f t="shared" si="0"/>
-        <v>254</v>
+        <v>84</v>
       </c>
       <c r="D65" s="2">
         <f t="shared" si="1"/>
-        <v>-316</v>
+        <v>64</v>
       </c>
       <c r="F65" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>750</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B66" s="2">
         <f t="shared" si="0"/>
-        <v>255</v>
+        <v>85</v>
       </c>
       <c r="D66" s="2">
         <f t="shared" si="1"/>
-        <v>-315</v>
+        <v>65</v>
       </c>
       <c r="F66" s="2">
         <f t="shared" si="2"/>
-        <v>-5</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>

--- a/Rasterisation 2023.xlsx
+++ b/Rasterisation 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lt00036625\Desktop\Computer Graphics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MS0036625\Documents\CG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CCF328-99BA-44FF-B105-223808E4483E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039377AE-653B-40E5-9E33-22BB9654B1B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11040" activeTab="1" xr2:uid="{2CF3E13D-F9CA-4881-B5D4-324E0A36FCCB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11040" activeTab="2" xr2:uid="{2CF3E13D-F9CA-4881-B5D4-324E0A36FCCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,21 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
   <si>
     <t>(</t>
   </si>
@@ -143,6 +134,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y </t>
+  </si>
+  <si>
+    <t>Negate back</t>
   </si>
 </sst>
 </file>
@@ -739,14 +739,14 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="9.140625" style="2"/>
-    <col min="9" max="9" width="11.85546875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="8" width="9.109375" style="2"/>
+    <col min="9" max="9" width="11.88671875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,7 +773,7 @@
         <v>2.8823529411764706</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
@@ -805,7 +805,7 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -830,7 +830,7 @@
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
@@ -850,7 +850,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <f>B1</f>
         <v>354</v>
@@ -876,7 +876,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <f>B10+1</f>
         <v>355</v>
@@ -902,7 +902,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <f t="shared" ref="B12:B31" si="3">B11+1</f>
         <v>356</v>
@@ -928,7 +928,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -954,7 +954,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -980,7 +980,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -1006,7 +1006,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -1032,7 +1032,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -1058,7 +1058,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -1084,7 +1084,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -1110,7 +1110,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -1136,7 +1136,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -1162,7 +1162,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -1188,7 +1188,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -1214,7 +1214,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -1240,7 +1240,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -1266,7 +1266,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -1292,7 +1292,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -1318,7 +1318,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -1344,7 +1344,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -1370,7 +1370,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -1396,7 +1396,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -1437,35 +1437,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBB7519-A2B6-458A-A8C3-99333BE6E0F1}">
   <dimension ref="A1:AA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="2.85546875" style="2"/>
+    <col min="7" max="7" width="5.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="2.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>32</v>
+        <v>-357</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2">
-        <v>12</v>
+        <v>246</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1478,27 +1478,27 @@
       </c>
       <c r="H1" s="2">
         <f>(D3-D1)/(B3-B1)</f>
-        <v>1.875</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>40</v>
+        <v>-350</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>27</v>
+        <v>250</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1507,10 +1507,10 @@
       </c>
       <c r="D5" s="2">
         <f>B3-B1</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1519,10 +1519,10 @@
       </c>
       <c r="D6" s="2">
         <f>D3-D1</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1531,10 +1531,10 @@
       </c>
       <c r="D7" s="2">
         <f>D6-D5</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>19</v>
@@ -1544,14 +1544,14 @@
       </c>
       <c r="D8" s="5">
         <f>D7*2</f>
-        <v>14</v>
+        <v>-6</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
       <c r="B9" s="7" t="s">
         <v>20</v>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="D9" s="7">
         <f>2*D6</f>
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="8" t="s">
@@ -1571,7 +1571,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
         <v>26</v>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="D10" s="10">
         <f>2*D6-D5</f>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>16</v>
@@ -1599,10 +1599,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="Y11" s="13"/>
     </row>
-    <row r="12" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1623,32 +1623,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <f>B1</f>
-        <v>32</v>
+        <v>-357</v>
       </c>
       <c r="D13" s="2">
         <f>D1</f>
-        <v>12</v>
+        <v>246</v>
       </c>
       <c r="F13" s="2">
         <f>D10</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <f>B13+1</f>
-        <v>33</v>
+        <v>-356</v>
       </c>
       <c r="D14" s="2">
         <f>IF(F13&lt;=0,D13,D13+1)</f>
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="F14" s="2">
         <f>IF(F13&lt;=0, F13+D$9,F13+D$8)</f>
-        <v>36</v>
+        <v>-5</v>
       </c>
       <c r="X14" s="2" t="s">
         <v>20</v>
@@ -1660,36 +1660,36 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <f t="shared" ref="B15:B66" si="0">B14+1</f>
-        <v>34</v>
+        <v>-355</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ref="D15:D66" si="1">IF(F14&lt;=0,D14,D14+1)</f>
-        <v>14</v>
+        <v>247</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" ref="F15:F66" si="2">IF(F14&lt;=0, F14+D$9,F14+D$8)</f>
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="O15" s="3"/>
       <c r="U15" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>-354</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>248</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v>-3</v>
       </c>
       <c r="X16" s="2" t="s">
         <v>26</v>
@@ -1701,704 +1701,704 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>-353</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="2"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>-352</v>
       </c>
       <c r="D18" s="2">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>249</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="2"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>-351</v>
       </c>
       <c r="D19" s="2">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>249</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" si="2"/>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <f t="shared" si="0"/>
-        <v>39</v>
+        <v>-350</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>250</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>-349</v>
       </c>
       <c r="D21" s="2">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="2"/>
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>-348</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>251</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" si="2"/>
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>-347</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>252</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="2"/>
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>-346</v>
       </c>
       <c r="D24" s="2">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>252</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" si="2"/>
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>-345</v>
       </c>
       <c r="D25" s="2">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>253</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="2"/>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>-344</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>253</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="2"/>
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>-343</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>254</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" si="2"/>
-        <v>218</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>-342</v>
       </c>
       <c r="D28" s="2">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>255</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" si="2"/>
-        <v>232</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>-341</v>
       </c>
       <c r="D29" s="2">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" si="2"/>
-        <v>246</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <f t="shared" si="0"/>
-        <v>49</v>
+        <v>-340</v>
       </c>
       <c r="D30" s="2">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>256</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="2">
+        <f t="shared" si="0"/>
+        <v>-339</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="2">
+        <f t="shared" si="0"/>
+        <v>-338</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="1"/>
+        <v>257</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="2">
+        <f t="shared" si="0"/>
+        <v>-337</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="1"/>
+        <v>257</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="2">
+        <f t="shared" si="0"/>
+        <v>-336</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="1"/>
+        <v>258</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="2">
+        <f t="shared" si="0"/>
+        <v>-335</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="1"/>
+        <v>259</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="2">
+        <f t="shared" si="0"/>
+        <v>-334</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="1"/>
+        <v>259</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="2">
+        <f t="shared" si="0"/>
+        <v>-333</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="1"/>
         <v>260</v>
       </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="2">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="D31" s="2">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="F31" s="2">
-        <f t="shared" si="2"/>
+      <c r="F37" s="2">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="2">
+        <f t="shared" si="0"/>
+        <v>-332</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="2">
+        <f t="shared" si="0"/>
+        <v>-331</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="1"/>
+        <v>261</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="2">
+        <f t="shared" si="0"/>
+        <v>-330</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="1"/>
+        <v>261</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="2">
+        <f t="shared" si="0"/>
+        <v>-329</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="1"/>
+        <v>262</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="2">
+        <f t="shared" si="0"/>
+        <v>-328</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="1"/>
+        <v>263</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="2">
+        <f t="shared" si="0"/>
+        <v>-327</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="1"/>
+        <v>263</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="2">
+        <f t="shared" si="0"/>
+        <v>-326</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="1"/>
+        <v>264</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="2">
+        <f t="shared" si="0"/>
+        <v>-325</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="1"/>
+        <v>264</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="2">
+        <f t="shared" si="0"/>
+        <v>-324</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="1"/>
+        <v>265</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="2">
+        <f t="shared" si="0"/>
+        <v>-323</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="1"/>
+        <v>265</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="2">
+        <f t="shared" si="0"/>
+        <v>-322</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="1"/>
+        <v>266</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="2">
+        <f t="shared" si="0"/>
+        <v>-321</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="1"/>
+        <v>267</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="2">
+        <f t="shared" si="0"/>
+        <v>-320</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="1"/>
+        <v>267</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="2">
+        <f t="shared" si="0"/>
+        <v>-319</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="1"/>
+        <v>268</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="2">
+        <f t="shared" si="0"/>
+        <v>-318</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="1"/>
+        <v>268</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="2">
+        <f t="shared" si="0"/>
+        <v>-317</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="1"/>
+        <v>269</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="2">
+        <f t="shared" si="0"/>
+        <v>-316</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="1"/>
+        <v>269</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="2">
+        <f t="shared" si="0"/>
+        <v>-315</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="2">
+        <f t="shared" si="0"/>
+        <v>-314</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="1"/>
+        <v>271</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="2">
+        <f t="shared" si="0"/>
+        <v>-313</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="1"/>
+        <v>271</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="2">
+        <f t="shared" si="0"/>
+        <v>-312</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="1"/>
+        <v>272</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="2">
+        <f t="shared" si="0"/>
+        <v>-311</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" si="1"/>
+        <v>272</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="2">
+        <f t="shared" si="0"/>
+        <v>-310</v>
+      </c>
+      <c r="D60" s="2">
+        <f t="shared" si="1"/>
+        <v>273</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="2">
+        <f t="shared" si="0"/>
+        <v>-309</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" si="1"/>
+        <v>273</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="2">
+        <f t="shared" si="0"/>
+        <v>-308</v>
+      </c>
+      <c r="D62" s="2">
+        <f t="shared" si="1"/>
         <v>274</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="2">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="D32" s="2">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="F32" s="2">
-        <f t="shared" si="2"/>
-        <v>288</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="2">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="D33" s="2">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="F33" s="2">
-        <f t="shared" si="2"/>
-        <v>302</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="2">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="D34" s="2">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="F34" s="2">
-        <f t="shared" si="2"/>
-        <v>316</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="2">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="D35" s="2">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="F35" s="2">
-        <f t="shared" si="2"/>
-        <v>330</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="2">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="D36" s="2">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="F36" s="2">
-        <f t="shared" si="2"/>
-        <v>344</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="2">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="D37" s="2">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="F37" s="2">
-        <f t="shared" si="2"/>
-        <v>358</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="2">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="D38" s="2">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="F38" s="2">
-        <f t="shared" si="2"/>
-        <v>372</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="2">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="D39" s="2">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="F39" s="2">
-        <f t="shared" si="2"/>
-        <v>386</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="2">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="D40" s="2">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="F40" s="2">
-        <f t="shared" si="2"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="2">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="D41" s="2">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="F41" s="2">
-        <f t="shared" si="2"/>
-        <v>414</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="2">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-      <c r="D42" s="2">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="F42" s="2">
-        <f t="shared" si="2"/>
-        <v>428</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="2">
-        <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="D43" s="2">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="F43" s="2">
-        <f t="shared" si="2"/>
-        <v>442</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="2">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="D44" s="2">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="F44" s="2">
-        <f t="shared" si="2"/>
-        <v>456</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="2">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="D45" s="2">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="F45" s="2">
-        <f t="shared" si="2"/>
-        <v>470</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="2">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="D46" s="2">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="F46" s="2">
-        <f t="shared" si="2"/>
-        <v>484</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="2">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="D47" s="2">
-        <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="F47" s="2">
-        <f t="shared" si="2"/>
-        <v>498</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="2">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="D48" s="2">
-        <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="F48" s="2">
-        <f t="shared" si="2"/>
-        <v>512</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="2">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="D49" s="2">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="F49" s="2">
-        <f t="shared" si="2"/>
-        <v>526</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="2">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="D50" s="2">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="F50" s="2">
-        <f t="shared" si="2"/>
-        <v>540</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="2">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="D51" s="2">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="F51" s="2">
-        <f t="shared" si="2"/>
-        <v>554</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="2">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="D52" s="2">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="F52" s="2">
-        <f t="shared" si="2"/>
-        <v>568</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="2">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="D53" s="2">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="F53" s="2">
-        <f t="shared" si="2"/>
-        <v>582</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="2">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="D54" s="2">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="F54" s="2">
-        <f t="shared" si="2"/>
-        <v>596</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="2">
-        <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-      <c r="D55" s="2">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="F55" s="2">
-        <f t="shared" si="2"/>
-        <v>610</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="2">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="D56" s="2">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="F56" s="2">
-        <f t="shared" si="2"/>
-        <v>624</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="2">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-      <c r="D57" s="2">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="F57" s="2">
-        <f t="shared" si="2"/>
-        <v>638</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="2">
-        <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="D58" s="2">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="F58" s="2">
-        <f t="shared" si="2"/>
-        <v>652</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="2">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="D59" s="2">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="F59" s="2">
-        <f t="shared" si="2"/>
-        <v>666</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="2">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="D60" s="2">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="F60" s="2">
-        <f t="shared" si="2"/>
-        <v>680</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="2">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="D61" s="2">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="F61" s="2">
-        <f t="shared" si="2"/>
-        <v>694</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="2">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="D62" s="2">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
       <c r="F62" s="2">
         <f t="shared" si="2"/>
-        <v>708</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B63" s="2">
         <f t="shared" si="0"/>
-        <v>82</v>
+        <v>-307</v>
       </c>
       <c r="D63" s="2">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>275</v>
       </c>
       <c r="F63" s="2">
         <f t="shared" si="2"/>
-        <v>722</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B64" s="2">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>-306</v>
       </c>
       <c r="D64" s="2">
         <f t="shared" si="1"/>
-        <v>63</v>
+        <v>275</v>
       </c>
       <c r="F64" s="2">
         <f t="shared" si="2"/>
-        <v>736</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="2">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>-305</v>
       </c>
       <c r="D65" s="2">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>276</v>
       </c>
       <c r="F65" s="2">
         <f t="shared" si="2"/>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="2">
         <f t="shared" si="0"/>
-        <v>85</v>
+        <v>-304</v>
       </c>
       <c r="D66" s="2">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>276</v>
       </c>
       <c r="F66" s="2">
         <f t="shared" si="2"/>
-        <v>764</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2412,12 +2412,229 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2A88AB-FBB9-462F-A483-FE89B287506C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>-357</v>
+      </c>
+      <c r="C3">
+        <v>246</v>
+      </c>
+      <c r="E3">
+        <f>C3</f>
+        <v>246</v>
+      </c>
+      <c r="F3">
+        <f>A3</f>
+        <v>-357</v>
+      </c>
+      <c r="H3">
+        <f>E3</f>
+        <v>246</v>
+      </c>
+      <c r="I3">
+        <f>-F3</f>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>-356</v>
+      </c>
+      <c r="C4">
+        <v>247</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E10" si="0">C4</f>
+        <v>247</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F10" si="1">A4</f>
+        <v>-356</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H10" si="2">E4</f>
+        <v>247</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I10" si="3">-F4</f>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>-355</v>
+      </c>
+      <c r="C5">
+        <v>247</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>247</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>-355</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>247</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>-354</v>
+      </c>
+      <c r="C6">
+        <v>248</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>-354</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>-353</v>
+      </c>
+      <c r="C7">
+        <v>248</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>-353</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>-352</v>
+      </c>
+      <c r="C8">
+        <v>249</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>249</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>-352</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>249</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>-351</v>
+      </c>
+      <c r="C9">
+        <v>249</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>249</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>-351</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>249</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>-350</v>
+      </c>
+      <c r="C10">
+        <v>250</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>-350</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2427,12 +2644,12 @@
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2460,7 +2677,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2471,7 +2688,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2492,12 +2709,12 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2524,7 +2741,7 @@
         <v>0.34693877551020408</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2534,7 +2751,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -2554,7 +2771,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>202</v>
       </c>
@@ -2573,7 +2790,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>203</v>
       </c>
@@ -2589,7 +2806,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>204</v>
       </c>
@@ -2605,7 +2822,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>205</v>
       </c>
@@ -2621,7 +2838,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>206</v>
       </c>
@@ -2637,7 +2854,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>207</v>
       </c>
@@ -2653,7 +2870,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>208</v>
       </c>
@@ -2669,7 +2886,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>209</v>
       </c>
@@ -2685,7 +2902,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>210</v>
       </c>
@@ -2701,7 +2918,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>211</v>
       </c>
@@ -2717,7 +2934,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>212</v>
       </c>
@@ -2733,7 +2950,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>213</v>
       </c>
@@ -2749,7 +2966,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>214</v>
       </c>
@@ -2765,7 +2982,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>215</v>
       </c>
@@ -2781,7 +2998,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>216</v>
       </c>
@@ -2797,7 +3014,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>217</v>
       </c>
@@ -2813,7 +3030,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>218</v>
       </c>
@@ -2829,7 +3046,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>219</v>
       </c>
@@ -2845,7 +3062,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>220</v>
       </c>
@@ -2861,7 +3078,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>221</v>
       </c>
@@ -2877,7 +3094,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>222</v>
       </c>
@@ -2893,7 +3110,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>223</v>
       </c>
@@ -2909,7 +3126,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>224</v>
       </c>
@@ -2925,7 +3142,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>225</v>
       </c>
@@ -2941,7 +3158,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>226</v>
       </c>
@@ -2957,7 +3174,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>227</v>
       </c>
@@ -2973,7 +3190,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>228</v>
       </c>
@@ -2989,7 +3206,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>229</v>
       </c>
@@ -3005,7 +3222,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>230</v>
       </c>
@@ -3021,7 +3238,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>231</v>
       </c>
@@ -3037,7 +3254,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>232</v>
       </c>
@@ -3053,7 +3270,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>233</v>
       </c>
@@ -3069,7 +3286,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>234</v>
       </c>
@@ -3085,7 +3302,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>235</v>
       </c>
@@ -3101,7 +3318,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>236</v>
       </c>
@@ -3117,7 +3334,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>237</v>
       </c>
@@ -3133,7 +3350,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>238</v>
       </c>
@@ -3149,7 +3366,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>239</v>
       </c>
@@ -3165,7 +3382,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>240</v>
       </c>
@@ -3181,7 +3398,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>241</v>
       </c>
@@ -3197,7 +3414,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>242</v>
       </c>
@@ -3213,7 +3430,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>243</v>
       </c>
@@ -3229,7 +3446,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>244</v>
       </c>
@@ -3245,7 +3462,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>245</v>
       </c>
@@ -3261,7 +3478,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>246</v>
       </c>
@@ -3277,7 +3494,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>247</v>
       </c>
@@ -3293,7 +3510,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B57">
         <v>248</v>
       </c>
@@ -3309,7 +3526,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B58">
         <v>249</v>
       </c>
@@ -3325,7 +3542,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>250</v>
       </c>
@@ -3341,7 +3558,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>251</v>
       </c>
@@ -3370,9 +3587,9 @@
       <selection activeCell="H18" sqref="H18:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3399,7 +3616,7 @@
         <v>-0.72727272727272729</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3409,7 +3626,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3429,12 +3646,12 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>202</v>
       </c>
@@ -3456,7 +3673,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>203</v>
       </c>
@@ -3472,7 +3689,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>204</v>
       </c>
@@ -3488,7 +3705,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>205</v>
       </c>
@@ -3504,7 +3721,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>206</v>
       </c>
@@ -3520,7 +3737,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>207</v>
       </c>
@@ -3536,7 +3753,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>208</v>
       </c>
@@ -3552,7 +3769,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>209</v>
       </c>
@@ -3568,7 +3785,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>210</v>
       </c>
@@ -3584,7 +3801,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>211</v>
       </c>
@@ -3600,7 +3817,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>212</v>
       </c>
@@ -3616,7 +3833,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>213</v>
       </c>

--- a/Rasterisation 2023.xlsx
+++ b/Rasterisation 2023.xlsx
@@ -1,35 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MS0036625\Documents\CG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MS0036625\Desktop\CG25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039377AE-653B-40E5-9E33-22BB9654B1B4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C8289A-DA66-48B5-9669-CC4450AAA1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11040" activeTab="2" xr2:uid="{2CF3E13D-F9CA-4881-B5D4-324E0A36FCCB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{2CF3E13D-F9CA-4881-B5D4-324E0A36FCCB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Equation of Line and DDA" sheetId="1" r:id="rId1"/>
+    <sheet name="Bresenham Algorithm" sheetId="2" r:id="rId2"/>
+    <sheet name="dx &lt; 0 example" sheetId="8" r:id="rId3"/>
+    <sheet name="dy &lt; 0 example" sheetId="7" r:id="rId4"/>
+    <sheet name="dy&gt;dx example" sheetId="6" r:id="rId5"/>
+    <sheet name="Compound Example 1" sheetId="3" r:id="rId6"/>
+    <sheet name="Compound Example 2" sheetId="4" r:id="rId7"/>
+    <sheet name="Compound Example 3" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
   <si>
     <t>(</t>
   </si>
@@ -143,6 +157,69 @@
   </si>
   <si>
     <t>Negate back</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to </t>
+  </si>
+  <si>
+    <t>(15,</t>
+  </si>
+  <si>
+    <t>20)</t>
+  </si>
+  <si>
+    <t>30)</t>
+  </si>
+  <si>
+    <t>(23,</t>
+  </si>
+  <si>
+    <t>dy &gt; dx</t>
+  </si>
+  <si>
+    <t>So swap x,y and apply bresh</t>
+  </si>
+  <si>
+    <t>(20,15)</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>(30, 23)</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Want to rasterise</t>
+  </si>
+  <si>
+    <t>(30, 8)</t>
+  </si>
+  <si>
+    <t>dy = 8 - 15 = -7 &lt;0</t>
+  </si>
+  <si>
+    <t>Negate ys and apply bresh</t>
+  </si>
+  <si>
+    <t>(20,-15) to (30, -8)</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Negate Ys back</t>
+  </si>
+  <si>
+    <t>dx = 17 - 30 = -13 &lt;0</t>
+  </si>
+  <si>
+    <t>Want to rasterise (30,28) to  (17,23)</t>
+  </si>
+  <si>
+    <t>Swap points to rasterise (17,23) to (30,28)</t>
   </si>
 </sst>
 </file>
@@ -211,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -235,9 +312,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -437,9 +511,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -477,7 +551,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -583,7 +657,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -725,7 +799,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -739,14 +813,14 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="9.109375" style="2"/>
-    <col min="9" max="9" width="11.88671875" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="8" width="9.140625" style="2"/>
+    <col min="9" max="9" width="11.85546875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,7 +847,7 @@
         <v>2.8823529411764706</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,22 +864,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="G6" s="12" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="G6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -823,14 +897,14 @@
         <f>D1-B7*B1</f>
         <v>-818.35294117647061</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
@@ -850,7 +924,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <f>B1</f>
         <v>354</v>
@@ -876,7 +950,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <f>B10+1</f>
         <v>355</v>
@@ -902,7 +976,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <f t="shared" ref="B12:B31" si="3">B11+1</f>
         <v>356</v>
@@ -928,7 +1002,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <f t="shared" si="3"/>
         <v>357</v>
@@ -954,7 +1028,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <f t="shared" si="3"/>
         <v>358</v>
@@ -980,7 +1054,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <f t="shared" si="3"/>
         <v>359</v>
@@ -1006,7 +1080,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <f t="shared" si="3"/>
         <v>360</v>
@@ -1032,7 +1106,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <f t="shared" si="3"/>
         <v>361</v>
@@ -1058,7 +1132,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <f t="shared" si="3"/>
         <v>362</v>
@@ -1084,7 +1158,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <f t="shared" si="3"/>
         <v>363</v>
@@ -1110,7 +1184,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <f t="shared" si="3"/>
         <v>364</v>
@@ -1136,7 +1210,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <f t="shared" si="3"/>
         <v>365</v>
@@ -1162,7 +1236,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <f t="shared" si="3"/>
         <v>366</v>
@@ -1188,7 +1262,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <f t="shared" si="3"/>
         <v>367</v>
@@ -1214,7 +1288,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <f t="shared" si="3"/>
         <v>368</v>
@@ -1240,7 +1314,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <f t="shared" si="3"/>
         <v>369</v>
@@ -1266,7 +1340,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <f t="shared" si="3"/>
         <v>370</v>
@@ -1292,7 +1366,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <f t="shared" si="3"/>
         <v>371</v>
@@ -1318,7 +1392,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <f t="shared" si="3"/>
         <v>372</v>
@@ -1344,7 +1418,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <f t="shared" si="3"/>
         <v>373</v>
@@ -1370,7 +1444,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <f t="shared" si="3"/>
         <v>374</v>
@@ -1396,7 +1470,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <f t="shared" si="3"/>
         <v>375</v>
@@ -1437,35 +1511,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBB7519-A2B6-458A-A8C3-99333BE6E0F1}">
   <dimension ref="A1:AA66"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:D20"/>
+    <sheetView topLeftCell="A7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="2.88671875" style="2"/>
+    <col min="7" max="7" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="2.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>-357</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2">
-        <v>246</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1478,27 +1552,27 @@
       </c>
       <c r="H1" s="2">
         <f>(D3-D1)/(B3-B1)</f>
-        <v>0.5714285714285714</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+        <v>0.38461538461538464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>-350</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
@@ -1507,10 +1581,10 @@
       </c>
       <c r="D5" s="2">
         <f>B3-B1</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1519,10 +1593,10 @@
       </c>
       <c r="D6" s="2">
         <f>D3-D1</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
@@ -1531,10 +1605,10 @@
       </c>
       <c r="D7" s="2">
         <f>D6-D5</f>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>19</v>
@@ -1544,14 +1618,14 @@
       </c>
       <c r="D8" s="5">
         <f>D7*2</f>
-        <v>-6</v>
+        <v>-16</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7" t="s">
         <v>20</v>
@@ -1561,9 +1635,9 @@
       </c>
       <c r="D9" s="7">
         <f>2*D6</f>
-        <v>8</v>
-      </c>
-      <c r="E9" s="9"/>
+        <v>10</v>
+      </c>
+      <c r="E9" s="7"/>
       <c r="F9" s="8" t="s">
         <v>28</v>
       </c>
@@ -1571,38 +1645,38 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <f>2*D6-D5</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="11" t="s">
+        <v>-3</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>27</v>
       </c>
       <c r="X10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Y10" s="13" t="s">
+      <c r="Y10" s="12" t="s">
         <v>25</v>
       </c>
       <c r="Z10" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="Y11" s="13"/>
-    </row>
-    <row r="12" spans="1:27" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y11" s="12"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1618,37 +1692,37 @@
       <c r="X12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Y12" s="14"/>
+      <c r="Y12" s="13"/>
       <c r="Z12" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <f>B1</f>
-        <v>-357</v>
+        <v>17</v>
       </c>
       <c r="D13" s="2">
         <f>D1</f>
-        <v>246</v>
+        <v>23</v>
       </c>
       <c r="F13" s="2">
         <f>D10</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <f>B13+1</f>
-        <v>-356</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2">
         <f>IF(F13&lt;=0,D13,D13+1)</f>
-        <v>247</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2">
         <f>IF(F13&lt;=0, F13+D$9,F13+D$8)</f>
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="X14" s="2" t="s">
         <v>20</v>
@@ -1660,36 +1734,36 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <f t="shared" ref="B15:B66" si="0">B14+1</f>
-        <v>-355</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" ref="D15:D66" si="1">IF(F14&lt;=0,D14,D14+1)</f>
-        <v>247</v>
+        <v>24</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" ref="F15:F66" si="2">IF(F14&lt;=0, F14+D$9,F14+D$8)</f>
-        <v>3</v>
+        <v>-9</v>
       </c>
       <c r="O15" s="3"/>
       <c r="U15" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <f t="shared" si="0"/>
-        <v>-354</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" si="1"/>
-        <v>248</v>
+        <v>24</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="X16" s="2" t="s">
         <v>26</v>
@@ -1701,704 +1775,704 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <f t="shared" si="0"/>
-        <v>-353</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2">
         <f t="shared" si="1"/>
-        <v>248</v>
+        <v>25</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" si="2"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="2">
-        <f t="shared" si="0"/>
-        <v>-352</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="1"/>
-        <v>249</v>
-      </c>
-      <c r="F18" s="2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="2"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="F21" s="2">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="2">
-        <f t="shared" si="0"/>
-        <v>-351</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="1"/>
-        <v>249</v>
-      </c>
-      <c r="F19" s="2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="2"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="F27" s="2">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="2">
-        <f t="shared" si="0"/>
-        <v>-350</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="1"/>
-        <v>250</v>
-      </c>
-      <c r="F20" s="2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="2"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="F29" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="2">
-        <f t="shared" si="0"/>
-        <v>-349</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" si="1"/>
-        <v>251</v>
-      </c>
-      <c r="F21" s="2">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="2"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="F31" s="2">
         <f t="shared" si="2"/>
         <v>-5</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="2">
-        <f t="shared" si="0"/>
-        <v>-348</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="1"/>
-        <v>251</v>
-      </c>
-      <c r="F22" s="2">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="2"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="F37" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="2">
-        <f t="shared" si="0"/>
-        <v>-347</v>
-      </c>
-      <c r="D23" s="2">
-        <f t="shared" si="1"/>
-        <v>252</v>
-      </c>
-      <c r="F23" s="2">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="2"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="F39" s="2">
         <f t="shared" si="2"/>
         <v>-3</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="2">
-        <f t="shared" si="0"/>
-        <v>-346</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="1"/>
-        <v>252</v>
-      </c>
-      <c r="F24" s="2">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="2"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="2"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="F45" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="2">
-        <f t="shared" si="0"/>
-        <v>-345</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="1"/>
-        <v>253</v>
-      </c>
-      <c r="F25" s="2">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="2"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="2">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="F47" s="2">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="2">
-        <f t="shared" si="0"/>
-        <v>-344</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="1"/>
-        <v>253</v>
-      </c>
-      <c r="F26" s="2">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="2">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="2">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="2"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="2">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="F53" s="2">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="2">
-        <f t="shared" si="0"/>
-        <v>-343</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" si="1"/>
-        <v>254</v>
-      </c>
-      <c r="F27" s="2">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="2">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="2"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="2">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="F55" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="2">
-        <f t="shared" si="0"/>
-        <v>-342</v>
-      </c>
-      <c r="D28" s="2">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-      <c r="F28" s="2">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="2">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="2"/>
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="2">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F57" s="2">
         <f t="shared" si="2"/>
         <v>-5</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="2">
-        <f t="shared" si="0"/>
-        <v>-341</v>
-      </c>
-      <c r="D29" s="2">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-      <c r="F29" s="2">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="2">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="2">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="2"/>
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="2">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D60" s="2">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="2">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="2">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="D62" s="2">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="2">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="D63" s="2">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="F63" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="2">
-        <f t="shared" si="0"/>
-        <v>-340</v>
-      </c>
-      <c r="D30" s="2">
-        <f t="shared" si="1"/>
-        <v>256</v>
-      </c>
-      <c r="F30" s="2">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="2">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="D64" s="2">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="2"/>
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="2">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="D65" s="2">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="F65" s="2">
         <f t="shared" si="2"/>
         <v>-3</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="2">
-        <f t="shared" si="0"/>
-        <v>-339</v>
-      </c>
-      <c r="D31" s="2">
-        <f t="shared" si="1"/>
-        <v>256</v>
-      </c>
-      <c r="F31" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="2">
-        <f t="shared" si="0"/>
-        <v>-338</v>
-      </c>
-      <c r="D32" s="2">
-        <f t="shared" si="1"/>
-        <v>257</v>
-      </c>
-      <c r="F32" s="2">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="2">
-        <f t="shared" si="0"/>
-        <v>-337</v>
-      </c>
-      <c r="D33" s="2">
-        <f t="shared" si="1"/>
-        <v>257</v>
-      </c>
-      <c r="F33" s="2">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="2">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D66" s="2">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="F66" s="2">
         <f t="shared" si="2"/>
         <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="2">
-        <f t="shared" si="0"/>
-        <v>-336</v>
-      </c>
-      <c r="D34" s="2">
-        <f t="shared" si="1"/>
-        <v>258</v>
-      </c>
-      <c r="F34" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="2">
-        <f t="shared" si="0"/>
-        <v>-335</v>
-      </c>
-      <c r="D35" s="2">
-        <f t="shared" si="1"/>
-        <v>259</v>
-      </c>
-      <c r="F35" s="2">
-        <f t="shared" si="2"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="2">
-        <f t="shared" si="0"/>
-        <v>-334</v>
-      </c>
-      <c r="D36" s="2">
-        <f t="shared" si="1"/>
-        <v>259</v>
-      </c>
-      <c r="F36" s="2">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="2">
-        <f t="shared" si="0"/>
-        <v>-333</v>
-      </c>
-      <c r="D37" s="2">
-        <f t="shared" si="1"/>
-        <v>260</v>
-      </c>
-      <c r="F37" s="2">
-        <f t="shared" si="2"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="2">
-        <f t="shared" si="0"/>
-        <v>-332</v>
-      </c>
-      <c r="D38" s="2">
-        <f t="shared" si="1"/>
-        <v>260</v>
-      </c>
-      <c r="F38" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="2">
-        <f t="shared" si="0"/>
-        <v>-331</v>
-      </c>
-      <c r="D39" s="2">
-        <f t="shared" si="1"/>
-        <v>261</v>
-      </c>
-      <c r="F39" s="2">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="2">
-        <f t="shared" si="0"/>
-        <v>-330</v>
-      </c>
-      <c r="D40" s="2">
-        <f t="shared" si="1"/>
-        <v>261</v>
-      </c>
-      <c r="F40" s="2">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="2">
-        <f t="shared" si="0"/>
-        <v>-329</v>
-      </c>
-      <c r="D41" s="2">
-        <f t="shared" si="1"/>
-        <v>262</v>
-      </c>
-      <c r="F41" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="2">
-        <f t="shared" si="0"/>
-        <v>-328</v>
-      </c>
-      <c r="D42" s="2">
-        <f t="shared" si="1"/>
-        <v>263</v>
-      </c>
-      <c r="F42" s="2">
-        <f t="shared" si="2"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="2">
-        <f t="shared" si="0"/>
-        <v>-327</v>
-      </c>
-      <c r="D43" s="2">
-        <f t="shared" si="1"/>
-        <v>263</v>
-      </c>
-      <c r="F43" s="2">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B44" s="2">
-        <f t="shared" si="0"/>
-        <v>-326</v>
-      </c>
-      <c r="D44" s="2">
-        <f t="shared" si="1"/>
-        <v>264</v>
-      </c>
-      <c r="F44" s="2">
-        <f t="shared" si="2"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B45" s="2">
-        <f t="shared" si="0"/>
-        <v>-325</v>
-      </c>
-      <c r="D45" s="2">
-        <f t="shared" si="1"/>
-        <v>264</v>
-      </c>
-      <c r="F45" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B46" s="2">
-        <f t="shared" si="0"/>
-        <v>-324</v>
-      </c>
-      <c r="D46" s="2">
-        <f t="shared" si="1"/>
-        <v>265</v>
-      </c>
-      <c r="F46" s="2">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B47" s="2">
-        <f t="shared" si="0"/>
-        <v>-323</v>
-      </c>
-      <c r="D47" s="2">
-        <f t="shared" si="1"/>
-        <v>265</v>
-      </c>
-      <c r="F47" s="2">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B48" s="2">
-        <f t="shared" si="0"/>
-        <v>-322</v>
-      </c>
-      <c r="D48" s="2">
-        <f t="shared" si="1"/>
-        <v>266</v>
-      </c>
-      <c r="F48" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" s="2">
-        <f t="shared" si="0"/>
-        <v>-321</v>
-      </c>
-      <c r="D49" s="2">
-        <f t="shared" si="1"/>
-        <v>267</v>
-      </c>
-      <c r="F49" s="2">
-        <f t="shared" si="2"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B50" s="2">
-        <f t="shared" si="0"/>
-        <v>-320</v>
-      </c>
-      <c r="D50" s="2">
-        <f t="shared" si="1"/>
-        <v>267</v>
-      </c>
-      <c r="F50" s="2">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B51" s="2">
-        <f t="shared" si="0"/>
-        <v>-319</v>
-      </c>
-      <c r="D51" s="2">
-        <f t="shared" si="1"/>
-        <v>268</v>
-      </c>
-      <c r="F51" s="2">
-        <f t="shared" si="2"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="2">
-        <f t="shared" si="0"/>
-        <v>-318</v>
-      </c>
-      <c r="D52" s="2">
-        <f t="shared" si="1"/>
-        <v>268</v>
-      </c>
-      <c r="F52" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B53" s="2">
-        <f t="shared" si="0"/>
-        <v>-317</v>
-      </c>
-      <c r="D53" s="2">
-        <f t="shared" si="1"/>
-        <v>269</v>
-      </c>
-      <c r="F53" s="2">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="2">
-        <f t="shared" si="0"/>
-        <v>-316</v>
-      </c>
-      <c r="D54" s="2">
-        <f t="shared" si="1"/>
-        <v>269</v>
-      </c>
-      <c r="F54" s="2">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B55" s="2">
-        <f t="shared" si="0"/>
-        <v>-315</v>
-      </c>
-      <c r="D55" s="2">
-        <f t="shared" si="1"/>
-        <v>270</v>
-      </c>
-      <c r="F55" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" s="2">
-        <f t="shared" si="0"/>
-        <v>-314</v>
-      </c>
-      <c r="D56" s="2">
-        <f t="shared" si="1"/>
-        <v>271</v>
-      </c>
-      <c r="F56" s="2">
-        <f t="shared" si="2"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B57" s="2">
-        <f t="shared" si="0"/>
-        <v>-313</v>
-      </c>
-      <c r="D57" s="2">
-        <f t="shared" si="1"/>
-        <v>271</v>
-      </c>
-      <c r="F57" s="2">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B58" s="2">
-        <f t="shared" si="0"/>
-        <v>-312</v>
-      </c>
-      <c r="D58" s="2">
-        <f t="shared" si="1"/>
-        <v>272</v>
-      </c>
-      <c r="F58" s="2">
-        <f t="shared" si="2"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="2">
-        <f t="shared" si="0"/>
-        <v>-311</v>
-      </c>
-      <c r="D59" s="2">
-        <f t="shared" si="1"/>
-        <v>272</v>
-      </c>
-      <c r="F59" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="2">
-        <f t="shared" si="0"/>
-        <v>-310</v>
-      </c>
-      <c r="D60" s="2">
-        <f t="shared" si="1"/>
-        <v>273</v>
-      </c>
-      <c r="F60" s="2">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="2">
-        <f t="shared" si="0"/>
-        <v>-309</v>
-      </c>
-      <c r="D61" s="2">
-        <f t="shared" si="1"/>
-        <v>273</v>
-      </c>
-      <c r="F61" s="2">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" s="2">
-        <f t="shared" si="0"/>
-        <v>-308</v>
-      </c>
-      <c r="D62" s="2">
-        <f t="shared" si="1"/>
-        <v>274</v>
-      </c>
-      <c r="F62" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B63" s="2">
-        <f t="shared" si="0"/>
-        <v>-307</v>
-      </c>
-      <c r="D63" s="2">
-        <f t="shared" si="1"/>
-        <v>275</v>
-      </c>
-      <c r="F63" s="2">
-        <f t="shared" si="2"/>
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B64" s="2">
-        <f t="shared" si="0"/>
-        <v>-306</v>
-      </c>
-      <c r="D64" s="2">
-        <f t="shared" si="1"/>
-        <v>275</v>
-      </c>
-      <c r="F64" s="2">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B65" s="2">
-        <f t="shared" si="0"/>
-        <v>-305</v>
-      </c>
-      <c r="D65" s="2">
-        <f t="shared" si="1"/>
-        <v>276</v>
-      </c>
-      <c r="F65" s="2">
-        <f t="shared" si="2"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B66" s="2">
-        <f t="shared" si="0"/>
-        <v>-304</v>
-      </c>
-      <c r="D66" s="2">
-        <f t="shared" si="1"/>
-        <v>276</v>
-      </c>
-      <c r="F66" s="2">
-        <f t="shared" si="2"/>
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2411,227 +2485,140 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2A88AB-FBB9-462F-A483-FE89B287506C}">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA8A183-780A-4281-9389-0AEC451D151E}">
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A13" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>-357</v>
-      </c>
-      <c r="C3">
-        <v>246</v>
-      </c>
-      <c r="E3">
-        <f>C3</f>
-        <v>246</v>
-      </c>
-      <c r="F3">
-        <f>A3</f>
-        <v>-357</v>
-      </c>
-      <c r="H3">
-        <f>E3</f>
-        <v>246</v>
-      </c>
-      <c r="I3">
-        <f>-F3</f>
-        <v>357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>-356</v>
-      </c>
-      <c r="C4">
-        <v>247</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E10" si="0">C4</f>
-        <v>247</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F10" si="1">A4</f>
-        <v>-356</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H10" si="2">E4</f>
-        <v>247</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I10" si="3">-F4</f>
-        <v>356</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>-355</v>
-      </c>
-      <c r="C5">
-        <v>247</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>247</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>-355</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="2"/>
-        <v>247</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="3"/>
-        <v>355</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>-354</v>
-      </c>
-      <c r="C6">
-        <v>248</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>248</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>-354</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="2"/>
-        <v>248</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="3"/>
-        <v>354</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>-353</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>248</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>248</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>-353</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="2"/>
-        <v>248</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="3"/>
-        <v>353</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>-352</v>
+        <v>18</v>
       </c>
       <c r="C8">
-        <v>249</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>249</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>-352</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="2"/>
-        <v>249</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="3"/>
-        <v>352</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>-351</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>249</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>249</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>-351</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="2"/>
-        <v>249</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="3"/>
-        <v>351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>-350</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>250</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>-350</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="2"/>
-        <v>250</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="3"/>
-        <v>350</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>23</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>24</v>
+      </c>
+      <c r="C14">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>26</v>
+      </c>
+      <c r="C16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2640,6 +2627,488 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641716AF-B839-49D3-A70A-9B26099353EC}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>-15</v>
+      </c>
+      <c r="G8">
+        <f>A8</f>
+        <v>20</v>
+      </c>
+      <c r="H8">
+        <f>C8*-1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>-14</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:G18" si="0">A9</f>
+        <v>21</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:H18" si="1">C9*-1</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>-14</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>-13</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>-12</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>-12</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>-11</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>-10</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>-9</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>-9</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>-8</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E10:E12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2E1D9B-497D-4B56-8E16-B148F7D3A971}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <f>C9</f>
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <f>A9</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F19" si="0">C10</f>
+        <v>16</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ref="G10:G19" si="1">A10</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>17</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>18</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>21</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>21</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>23</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E12:E14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D4A18D5-A97A-4F59-BB0A-057730CDFFAD}">
   <dimension ref="A1:J60"/>
   <sheetViews>
@@ -2647,9 +3116,9 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2677,7 +3146,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -2688,7 +3157,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2709,12 +3178,12 @@
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2741,7 +3210,7 @@
         <v>0.34693877551020408</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2751,7 +3220,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -2771,7 +3240,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>202</v>
       </c>
@@ -2790,7 +3259,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>203</v>
       </c>
@@ -2806,7 +3275,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>204</v>
       </c>
@@ -2822,7 +3291,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>205</v>
       </c>
@@ -2838,7 +3307,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>206</v>
       </c>
@@ -2854,7 +3323,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>207</v>
       </c>
@@ -2870,7 +3339,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>208</v>
       </c>
@@ -2886,7 +3355,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>209</v>
       </c>
@@ -2902,7 +3371,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>210</v>
       </c>
@@ -2918,7 +3387,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>211</v>
       </c>
@@ -2934,7 +3403,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>212</v>
       </c>
@@ -2950,7 +3419,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>213</v>
       </c>
@@ -2966,7 +3435,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>214</v>
       </c>
@@ -2982,7 +3451,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>215</v>
       </c>
@@ -2998,7 +3467,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>216</v>
       </c>
@@ -3014,7 +3483,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>217</v>
       </c>
@@ -3030,7 +3499,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>218</v>
       </c>
@@ -3046,7 +3515,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>219</v>
       </c>
@@ -3062,7 +3531,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>220</v>
       </c>
@@ -3078,7 +3547,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>221</v>
       </c>
@@ -3094,7 +3563,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>222</v>
       </c>
@@ -3110,7 +3579,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>223</v>
       </c>
@@ -3126,7 +3595,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>224</v>
       </c>
@@ -3142,7 +3611,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>225</v>
       </c>
@@ -3158,7 +3627,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>226</v>
       </c>
@@ -3174,7 +3643,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>227</v>
       </c>
@@ -3190,7 +3659,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>228</v>
       </c>
@@ -3206,7 +3675,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>229</v>
       </c>
@@ -3222,7 +3691,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>230</v>
       </c>
@@ -3238,7 +3707,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>231</v>
       </c>
@@ -3254,7 +3723,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>232</v>
       </c>
@@ -3270,7 +3739,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>233</v>
       </c>
@@ -3286,7 +3755,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>234</v>
       </c>
@@ -3302,7 +3771,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>235</v>
       </c>
@@ -3318,7 +3787,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>236</v>
       </c>
@@ -3334,7 +3803,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>237</v>
       </c>
@@ -3350,7 +3819,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>238</v>
       </c>
@@ -3366,7 +3835,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>239</v>
       </c>
@@ -3382,7 +3851,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>240</v>
       </c>
@@ -3398,7 +3867,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>241</v>
       </c>
@@ -3414,7 +3883,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>242</v>
       </c>
@@ -3430,7 +3899,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>243</v>
       </c>
@@ -3446,7 +3915,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>244</v>
       </c>
@@ -3462,7 +3931,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>245</v>
       </c>
@@ -3478,7 +3947,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>246</v>
       </c>
@@ -3494,7 +3963,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>247</v>
       </c>
@@ -3510,7 +3979,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>248</v>
       </c>
@@ -3526,7 +3995,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>249</v>
       </c>
@@ -3542,7 +4011,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>250</v>
       </c>
@@ -3558,7 +4027,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>251</v>
       </c>
@@ -3579,17 +4048,246 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2A88AB-FBB9-462F-A483-FE89B287506C}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-357</v>
+      </c>
+      <c r="C3">
+        <v>246</v>
+      </c>
+      <c r="E3">
+        <f>C3</f>
+        <v>246</v>
+      </c>
+      <c r="F3">
+        <f>A3</f>
+        <v>-357</v>
+      </c>
+      <c r="H3">
+        <f>E3</f>
+        <v>246</v>
+      </c>
+      <c r="I3">
+        <f>-F3</f>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-356</v>
+      </c>
+      <c r="C4">
+        <v>247</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E10" si="0">C4</f>
+        <v>247</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F10" si="1">A4</f>
+        <v>-356</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H10" si="2">E4</f>
+        <v>247</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I10" si="3">-F4</f>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-355</v>
+      </c>
+      <c r="C5">
+        <v>247</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>247</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>-355</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>247</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-354</v>
+      </c>
+      <c r="C6">
+        <v>248</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>-354</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-353</v>
+      </c>
+      <c r="C7">
+        <v>248</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>-353</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-352</v>
+      </c>
+      <c r="C8">
+        <v>249</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>249</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>-352</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>249</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-351</v>
+      </c>
+      <c r="C9">
+        <v>249</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>249</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>-351</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>249</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-350</v>
+      </c>
+      <c r="C10">
+        <v>250</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>-350</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC4160F-6783-429F-A2BE-C2053811F3B8}">
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:J18"/>
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3616,7 +4314,7 @@
         <v>-0.72727272727272729</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3626,7 +4324,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3646,12 +4344,12 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>202</v>
       </c>
@@ -3673,7 +4371,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>203</v>
       </c>
@@ -3689,7 +4387,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>204</v>
       </c>
@@ -3705,7 +4403,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>205</v>
       </c>
@@ -3721,7 +4419,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>206</v>
       </c>
@@ -3737,7 +4435,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>207</v>
       </c>
@@ -3753,7 +4451,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>208</v>
       </c>
@@ -3769,7 +4467,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>209</v>
       </c>
@@ -3785,7 +4483,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>210</v>
       </c>
@@ -3801,7 +4499,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>211</v>
       </c>
@@ -3817,7 +4515,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>212</v>
       </c>
@@ -3833,7 +4531,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>213</v>
       </c>
